--- a/fhir/ig/tei/0.2.1/StructureDefinition-MessageHeaderLE.xlsx
+++ b/fhir/ig/tei/0.2.1/StructureDefinition-MessageHeaderLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-25T17:22:41-04:00</t>
+    <t>2024-07-15T11:25:06-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/fhir/ig/tei/0.2.1/StructureDefinition-MessageHeaderLE.xlsx
+++ b/fhir/ig/tei/0.2.1/StructureDefinition-MessageHeaderLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-15T11:25:06-04:00</t>
+    <t>2024-07-19T15:20:36-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/fhir/ig/tei/0.2.1/StructureDefinition-MessageHeaderLE.xlsx
+++ b/fhir/ig/tei/0.2.1/StructureDefinition-MessageHeaderLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-19T15:20:36-04:00</t>
+    <t>2024-07-29T12:02:43-04:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -285,10 +285,10 @@
 </t>
   </si>
   <si>
-    <t>Logical id of this artifact</t>
-  </si>
-  <si>
-    <t>The logical id of the resource, as used in the URL for the resource. Once assigned, this value never changes.</t>
+    <t>Id temporal necesario para identificar el recurso</t>
+  </si>
+  <si>
+    <t>El Id que envíe desde la aplicación es temporal, el definitivo es creado por el servidor</t>
   </si>
   <si>
     <t>The only time that a resource does not have an id is when it is being submitted to the server using a create operation.</t>
@@ -1819,7 +1819,7 @@
         <v>85</v>
       </c>
       <c r="H3" t="s" s="2">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="I3" t="s" s="2">
         <v>75</v>

--- a/fhir/ig/tei/0.2.1/StructureDefinition-MessageHeaderLE.xlsx
+++ b/fhir/ig/tei/0.2.1/StructureDefinition-MessageHeaderLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-29T12:02:43-04:00</t>
+    <t>2024-10-22T09:59:13-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/fhir/ig/tei/0.2.1/StructureDefinition-MessageHeaderLE.xlsx
+++ b/fhir/ig/tei/0.2.1/StructureDefinition-MessageHeaderLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-22T09:59:13-05:00</t>
+    <t>2024-10-28T18:15:52-03:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/fhir/ig/tei/0.2.1/StructureDefinition-MessageHeaderLE.xlsx
+++ b/fhir/ig/tei/0.2.1/StructureDefinition-MessageHeaderLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-28T18:15:52-03:00</t>
+    <t>2025-04-11T11:42:22-04:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -417,7 +417,7 @@
     <t>Identifies where the resource comes from</t>
   </si>
   <si>
-    <t>A uri that identifies the source system of the resource. This provides a minimal amount of [Provenance](provenance.html#) information that can be used to track or differentiate the source of information in the resource. The source may identify another FHIR server, document, message, database, etc.</t>
+    <t>A uri that identifies the source system of the resource. This provides a minimal amount of [Provenance](http://hl7.org/fhir/R4/provenance.html#) information that can be used to track or differentiate the source of information in the resource. The source may identify another FHIR server, document, message, database, etc.</t>
   </si>
   <si>
     <t>In the provenance resource, this corresponds to Provenance.entity.what[x]. The exact use of the source (and the implied Provenance.entity.role) is left to implementer discretion. Only one nominated source is allowed; for additional provenance details, a full Provenance resource should be used. 
@@ -437,7 +437,7 @@
     <t>Profiles this resource claims to conform to</t>
   </si>
   <si>
-    <t>A list of profiles (references to [StructureDefinition](structuredefinition.html#) resources) that this resource claims to conform to. The URL is a reference to [StructureDefinition.url](structuredefinition-definitions.html#StructureDefinition.url).</t>
+    <t>A list of profiles (references to [StructureDefinition](http://hl7.org/fhir/R4/structuredefinition.html#) resources) that this resource claims to conform to. The URL is a reference to [StructureDefinition.url](http://hl7.org/fhir/R4/structuredefinition-definitions.html#StructureDefinition.url).</t>
   </si>
   <si>
     <t>It is up to the server and/or other infrastructure of policy to determine whether/how these claims are verified and/or updated over time.  The list of profile URLs is a set.</t>
@@ -627,7 +627,7 @@
     <t>Code that identifies the event this message represents and connects it with its definition. Events defined as part of the FHIR specification have the system value "http://terminology.hl7.org/CodeSystem/message-events".  Alternatively uri to the EventDefinition.</t>
   </si>
   <si>
-    <t>The time of the event will be found in the focus resource. The time of the message will be found in [Bundle.timestamp](bundle-definitions.html#Bundle.timestamp).</t>
+    <t>The time of the event will be found in the focus resource. The time of the message will be found in [Bundle.timestamp](http://hl7.org/fhir/R4/bundle-definitions.html#Bundle.timestamp).</t>
   </si>
   <si>
     <t>Drives the behavior associated with this message.</t>

--- a/fhir/ig/tei/0.2.1/StructureDefinition-MessageHeaderLE.xlsx
+++ b/fhir/ig/tei/0.2.1/StructureDefinition-MessageHeaderLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-11T11:42:22-04:00</t>
+    <t>2025-06-19T10:06:59-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/fhir/ig/tei/0.2.1/StructureDefinition-MessageHeaderLE.xlsx
+++ b/fhir/ig/tei/0.2.1/StructureDefinition-MessageHeaderLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-19T10:06:59-04:00</t>
+    <t>2025-07-24T21:35:10-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/fhir/ig/tei/0.2.1/StructureDefinition-MessageHeaderLE.xlsx
+++ b/fhir/ig/tei/0.2.1/StructureDefinition-MessageHeaderLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-24T21:35:10-04:00</t>
+    <t>2025-12-05T09:23:56-03:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -430,7 +430,7 @@
     <t>MessageHeader.meta.profile</t>
   </si>
   <si>
-    <t xml:space="preserve">canonical(StructureDefinition)
+    <t xml:space="preserve">canonical(StructureDefinition|4.0.1)
 </t>
   </si>
   <si>
@@ -468,7 +468,7 @@
     <t>Security Labels from the Healthcare Privacy and Security Classification System.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/security-labels</t>
+    <t>http://hl7.org/fhir/ValueSet/security-labels|4.0.1</t>
   </si>
   <si>
     <t>Meta.security</t>
@@ -492,7 +492,7 @@
     <t>Codes that represent various types of tags, commonly workflow-related; e.g. "Needs review by Dr. Jones".</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/common-tags</t>
+    <t>http://hl7.org/fhir/ValueSet/common-tags|4.0.1</t>
   </si>
   <si>
     <t>Meta.tag</t>
@@ -535,7 +535,7 @@
     <t>A human language.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/languages</t>
+    <t>http://hl7.org/fhir/ValueSet/languages|4.0.1</t>
   </si>
   <si>
     <t>Resource.language</t>
@@ -636,7 +636,7 @@
     <t>One of the message events defined as part of this version of FHIR.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/message-events</t>
+    <t>http://hl7.org/fhir/ValueSet/message-events|4.0.1</t>
   </si>
   <si>
     <t xml:space="preserve">type:$this}
@@ -739,7 +739,7 @@
     <t>MessageHeader.destination.target</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Device)
+    <t xml:space="preserve">Reference(Device|4.0.1)
 </t>
   </si>
   <si>
@@ -783,7 +783,7 @@
     <t>MessageHeader.destination.receiver</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Practitioner|PractitionerRole|Organization)
+    <t xml:space="preserve">Reference(Practitioner|4.0.1|PractitionerRole|4.0.1|Organization|4.0.1)
 </t>
   </si>
   <si>
@@ -817,7 +817,7 @@
     <t>MessageHeader.enterer</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Practitioner|PractitionerRole)
+    <t xml:space="preserve">Reference(Practitioner|4.0.1|PractitionerRole|4.0.1)
 </t>
   </si>
   <si>
@@ -1013,7 +1013,7 @@
     <t>Reason for event occurrence.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/message-reason-encounter</t>
+    <t>http://hl7.org/fhir/ValueSet/message-reason-encounter|4.0.1</t>
   </si>
   <si>
     <t>EVN.4 / ORC.16 / OBR-31-reason for study / BPO-13-BP indication for use / RXO-20-indication / RXE-27-give indication / RXD-21-indication / RXG-22-indication / RXA-19-indication</t>
@@ -1097,7 +1097,7 @@
     <t>MessageHeader.response.details</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(OperationOutcome)
+    <t xml:space="preserve">Reference(OperationOutcome|4.0.1)
 </t>
   </si>
   <si>
@@ -1125,7 +1125,7 @@
     <t>2</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Resource)
+    <t xml:space="preserve">Reference(Resource|4.0.1)
 </t>
   </si>
   <si>
@@ -1190,7 +1190,7 @@
     <t>MessageHeader.definition</t>
   </si>
   <si>
-    <t xml:space="preserve">canonical(MessageDefinition)
+    <t xml:space="preserve">canonical(MessageDefinition|4.0.1)
 </t>
   </si>
   <si>
@@ -1532,17 +1532,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="42.30078125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="42.30078125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="22.109375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="38.4609375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="6.1484375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.58203125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="4.94140625" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="14.7109375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="12.1875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="38.5625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="38.5625" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="20.140625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="34.8125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="5.29296875" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.21484375" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.55078125" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.1171875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="10.75390625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="91.53515625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="82.6484375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1551,25 +1551,25 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="9.04296875" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="15.77734375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="16.13671875" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="17.40234375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="16.9609375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="95.2265625" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="65.328125" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="5.8828125" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="20.84375" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="40.0859375" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="15.703125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="13.125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="34.05859375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.53125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="9.890625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="7.93359375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="14.08984375" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="14.4296875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="15.31640625" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="14.62890625" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="85.89453125" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="58.62890625" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.10546875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="17.6953125" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="35.90625" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="13.44140625" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="11.03515625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="31.21484375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="8.51953125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="8.859375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="167.11328125" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="143.62890625" customWidth="true" bestFit="true"/>
     <col min="38" max="38" width="255.0" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="33.05078125" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="29.45703125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
